--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value469.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value469.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9704319763809245</v>
+        <v>0.8330713510513306</v>
       </c>
       <c r="B1">
-        <v>1.276756949263885</v>
+        <v>1.186092376708984</v>
       </c>
       <c r="C1">
-        <v>2.028403354268647</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.089229791663857</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.757372971384628</v>
+        <v>1.356661796569824</v>
       </c>
     </row>
   </sheetData>
